--- a/trend_results/Lakes/LakeAlice_4e076d0cdf.xlsx
+++ b/trend_results/Lakes/LakeAlice_4e076d0cdf.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="48">
   <si>
     <t>site name</t>
   </si>
@@ -115,9 +115,6 @@
     <t>WARNING: Sen slope influenced by censored values</t>
   </si>
   <si>
-    <t>WARNING: Sen slope based on two censored values</t>
-  </si>
-  <si>
     <t>Lake</t>
   </si>
   <si>
@@ -127,13 +124,16 @@
     <t>As likely as not improving</t>
   </si>
   <si>
+    <t>Unlikely improving</t>
+  </si>
+  <si>
+    <t>Extremely likely improving</t>
+  </si>
+  <si>
     <t>As likely as not increasing</t>
   </si>
   <si>
-    <t>Extremely likely improving</t>
-  </si>
-  <si>
-    <t>Extremely unlikely improving</t>
+    <t>Very unlikely improving</t>
   </si>
   <si>
     <t>Rangitikei District</t>
@@ -515,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W12"/>
+  <dimension ref="A1:W13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -609,37 +609,37 @@
         <v>31</v>
       </c>
       <c r="F2">
-        <v>0.853639882146995</v>
+        <v>0.821396939117858</v>
       </c>
       <c r="G2">
-        <v>0.178571428571429</v>
+        <v>0.117647058823529</v>
       </c>
       <c r="H2">
-        <v>0.785714285714286</v>
+        <v>0.794117647058823</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>12</v>
+        <v>6.85</v>
       </c>
       <c r="K2">
-        <v>-2.98319005175388</v>
+        <v>-1.90652472527473</v>
       </c>
       <c r="L2">
-        <v>-6.05131554947147</v>
+        <v>-4.05653194800162</v>
       </c>
       <c r="M2">
-        <v>0.703782573277444</v>
+        <v>0.779444430769241</v>
       </c>
       <c r="N2">
-        <v>-24.859917097949</v>
+        <v>-27.8324777412369</v>
       </c>
       <c r="O2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P2" t="s">
         <v>34</v>
-      </c>
-      <c r="P2" t="s">
-        <v>35</v>
       </c>
       <c r="Q2">
         <v>1798681.95061</v>
@@ -680,19 +680,19 @@
         <v>32</v>
       </c>
       <c r="F3">
-        <v>0.592751053212115</v>
+        <v>0.36111831598129</v>
       </c>
       <c r="G3">
-        <v>0.464285714285714</v>
+        <v>0.5</v>
       </c>
       <c r="H3">
-        <v>0.321428571428571</v>
+        <v>0.352941176470588</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q3">
         <v>1798681.95061</v>
@@ -751,7 +751,7 @@
         <v>31</v>
       </c>
       <c r="F4">
-        <v>0.6450781617654729</v>
+        <v>0.252622545288335</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -763,22 +763,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0483193670191792</v>
+        <v>0.0491026726543967</v>
       </c>
       <c r="K4">
-        <v>-0.003593923592437</v>
+        <v>0.0052778823234244</v>
       </c>
       <c r="L4">
-        <v>-0.0176713288326156</v>
+        <v>-0.0053053170724989</v>
       </c>
       <c r="M4">
-        <v>0.017654690930789</v>
+        <v>0.0198782856196262</v>
       </c>
       <c r="N4">
-        <v>-7.43785321320643</v>
+        <v>10.7486660870218</v>
       </c>
       <c r="O4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P4" t="s">
         <v>36</v>
@@ -819,28 +819,28 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F5">
-        <v>0.894489560281156</v>
+        <v>0.957521697938325</v>
       </c>
       <c r="G5">
-        <v>0.5</v>
+        <v>0.529411764705882</v>
       </c>
       <c r="H5">
-        <v>0.535714285714286</v>
+        <v>0.441176470588235</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>0.00625</v>
+        <v>0.0025</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>-0.0055035426074814</v>
+        <v>-0.0063531919497335</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -849,10 +849,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q5">
         <v>1798681.95061</v>
@@ -893,37 +893,37 @@
         <v>31</v>
       </c>
       <c r="F6">
-        <v>0.6450781617654729</v>
+        <v>0.573760082709653</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0.9696969696969699</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>8.585000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="K6">
-        <v>0.07896780097421879</v>
+        <v>0.0117884690598056</v>
       </c>
       <c r="L6">
-        <v>-0.203118009876326</v>
+        <v>-0.161090884114386</v>
       </c>
       <c r="M6">
-        <v>0.35599357287288</v>
+        <v>0.23672213010827</v>
       </c>
       <c r="N6">
-        <v>0.919834606572147</v>
+        <v>0.13868787129183</v>
       </c>
       <c r="O6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q6">
         <v>1798681.95061</v>
@@ -961,37 +961,37 @@
         <v>31</v>
       </c>
       <c r="F7">
-        <v>0.972452742794816</v>
+        <v>0.77533060184295</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.892857142857143</v>
+        <v>0.882352941176471</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>1.33</v>
+        <v>1.275</v>
       </c>
       <c r="K7">
-        <v>-0.0888509144547877</v>
+        <v>-0.0295857879234168</v>
       </c>
       <c r="L7">
-        <v>-0.185189642522804</v>
+        <v>-0.134215334655914</v>
       </c>
       <c r="M7">
-        <v>-0.0194226239073598</v>
+        <v>0.0611372838412634</v>
       </c>
       <c r="N7">
-        <v>-6.68051988381863</v>
+        <v>-2.32045395477779</v>
       </c>
       <c r="O7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P7" t="s">
         <v>34</v>
-      </c>
-      <c r="P7" t="s">
-        <v>38</v>
       </c>
       <c r="Q7">
         <v>1798681.95061</v>
@@ -1032,37 +1032,37 @@
         <v>31</v>
       </c>
       <c r="F8">
-        <v>0.57832245481071</v>
+        <v>0.69808913321023</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.964285714285714</v>
+        <v>0.970588235294118</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.152</v>
+        <v>0.1445</v>
       </c>
       <c r="K8">
-        <v>-0.0017011663707265</v>
+        <v>-0.0063706395348837</v>
       </c>
       <c r="L8">
-        <v>-0.0244624042736872</v>
+        <v>-0.0283523671698268</v>
       </c>
       <c r="M8">
-        <v>0.0163587207440556</v>
+        <v>0.0119498502517399</v>
       </c>
       <c r="N8">
-        <v>-1.11918840179381</v>
+        <v>-4.40874708296451</v>
       </c>
       <c r="O8" t="s">
+        <v>33</v>
+      </c>
+      <c r="P8" t="s">
         <v>34</v>
-      </c>
-      <c r="P8" t="s">
-        <v>36</v>
       </c>
       <c r="Q8">
         <v>1798681.95061</v>
@@ -1103,37 +1103,37 @@
         <v>32</v>
       </c>
       <c r="F9">
-        <v>0.384080447941059</v>
+        <v>0.5</v>
       </c>
       <c r="G9">
-        <v>0.214285714285714</v>
+        <v>0.173076923076923</v>
       </c>
       <c r="H9">
-        <v>0.69047619047619</v>
+        <v>0.692307692307692</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>11</v>
+        <v>7.1</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>-1.16071136455751</v>
+        <v>-1.4282306893688</v>
       </c>
       <c r="M9">
-        <v>1.05364542559851</v>
+        <v>0.519560226986164</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q9">
         <v>1798681.95061</v>
@@ -1162,7 +1162,7 @@
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C10">
         <v>10</v>
@@ -1171,22 +1171,22 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F10">
-        <v>0.437592646974884</v>
+        <v>0.622282598474911</v>
       </c>
       <c r="G10">
-        <v>0.547619047619048</v>
+        <v>0.448979591836735</v>
       </c>
       <c r="H10">
-        <v>0.476190476190476</v>
+        <v>0.306122448979592</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>0.0025</v>
+        <v>4</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1201,10 +1201,10 @@
         <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q10">
         <v>1798681.95061</v>
@@ -1225,7 +1225,7 @@
         <v>43</v>
       </c>
       <c r="W10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1233,7 +1233,7 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -1242,40 +1242,40 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F11">
-        <v>0.35214934365125</v>
+        <v>0.594176281411117</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.557692307692308</v>
       </c>
       <c r="H11">
-        <v>0.80952380952381</v>
+        <v>0.423076923076923</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>1.265</v>
+        <v>0.0025</v>
       </c>
       <c r="K11">
-        <v>0.008354937094929399</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>-0.0261431541955958</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0.0555204168945122</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6604693355675469</v>
+        <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q11">
         <v>1798681.95061</v>
@@ -1296,7 +1296,7 @@
         <v>43</v>
       </c>
       <c r="W11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1304,7 +1304,7 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -1316,37 +1316,37 @@
         <v>31</v>
       </c>
       <c r="F12">
-        <v>0.0464697708091688</v>
+        <v>0.190440734989385</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.928571428571429</v>
+        <v>0.807692307692308</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1345</v>
+        <v>1.265</v>
       </c>
       <c r="K12">
-        <v>0.006697738386308</v>
+        <v>0.0199625562997363</v>
       </c>
       <c r="L12">
-        <v>8.97289568075169E-05</v>
+        <v>-0.008978666519167599</v>
       </c>
       <c r="M12">
-        <v>0.0138003622408561</v>
+        <v>0.0537722981832012</v>
       </c>
       <c r="N12">
-        <v>4.97973114223648</v>
+        <v>1.57806769167876</v>
       </c>
       <c r="O12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P12" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Q12">
         <v>1798681.95061</v>
@@ -1367,6 +1367,77 @@
         <v>43</v>
       </c>
       <c r="W12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13">
+        <v>0.0528450772193978</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0.136</v>
+      </c>
+      <c r="K13">
+        <v>0.004372573186223</v>
+      </c>
+      <c r="L13">
+        <v>-2.60954948570521E-05</v>
+      </c>
+      <c r="M13">
+        <v>0.008937579545891401</v>
+      </c>
+      <c r="N13">
+        <v>3.21512734281103</v>
+      </c>
+      <c r="O13" t="s">
+        <v>33</v>
+      </c>
+      <c r="P13" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q13">
+        <v>1798681.95061</v>
+      </c>
+      <c r="R13">
+        <v>5554762.93993</v>
+      </c>
+      <c r="S13" t="s">
+        <v>40</v>
+      </c>
+      <c r="T13" t="s">
+        <v>41</v>
+      </c>
+      <c r="U13" t="s">
+        <v>42</v>
+      </c>
+      <c r="V13" t="s">
+        <v>43</v>
+      </c>
+      <c r="W13" t="s">
         <v>47</v>
       </c>
     </row>

--- a/trend_results/Lakes/LakeAlice_4e076d0cdf.xlsx
+++ b/trend_results/Lakes/LakeAlice_4e076d0cdf.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="50">
   <si>
     <t>site name</t>
   </si>
@@ -88,6 +88,9 @@
     <t>Lake Alice</t>
   </si>
   <si>
+    <t>Cyanobacteria Biovolume</t>
+  </si>
+  <si>
     <t>Chlorophyll A</t>
   </si>
   <si>
@@ -118,12 +121,12 @@
     <t>Lake</t>
   </si>
   <si>
+    <t>As likely as not improving</t>
+  </si>
+  <si>
     <t>Likely improving</t>
   </si>
   <si>
-    <t>As likely as not improving</t>
-  </si>
-  <si>
     <t>Unlikely improving</t>
   </si>
   <si>
@@ -146,6 +149,9 @@
   </si>
   <si>
     <t>West_5</t>
+  </si>
+  <si>
+    <t>mg chl-a /m3</t>
   </si>
   <si>
     <t>mg/m2</t>
@@ -515,7 +521,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W13"/>
+  <dimension ref="A1:W14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -606,40 +612,40 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F2">
-        <v>0.821396939117858</v>
+        <v>0.458670974156384</v>
       </c>
       <c r="G2">
-        <v>0.117647058823529</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.794117647058823</v>
+        <v>0.970588235294118</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>6.85</v>
+        <v>0.03835</v>
       </c>
       <c r="K2">
-        <v>-1.90652472527473</v>
+        <v>0.0003128479657387</v>
       </c>
       <c r="L2">
-        <v>-4.05653194800162</v>
+        <v>-0.008980828665764599</v>
       </c>
       <c r="M2">
-        <v>0.779444430769241</v>
+        <v>0.0183855448585138</v>
       </c>
       <c r="N2">
-        <v>-27.8324777412369</v>
+        <v>0.815770445211888</v>
       </c>
       <c r="O2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q2">
         <v>1798681.95061</v>
@@ -648,19 +654,19 @@
         <v>5554762.93993</v>
       </c>
       <c r="S2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="U2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="V2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -680,37 +686,37 @@
         <v>32</v>
       </c>
       <c r="F3">
-        <v>0.36111831598129</v>
+        <v>0.821396939117858</v>
       </c>
       <c r="G3">
-        <v>0.5</v>
+        <v>0.117647058823529</v>
       </c>
       <c r="H3">
-        <v>0.352941176470588</v>
+        <v>0.794117647058823</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>3</v>
+        <v>6.85</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>-1.90652472527473</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>-4.05653194800162</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.779444430769241</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>-27.8324777412369</v>
       </c>
       <c r="O3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q3">
         <v>1798681.95061</v>
@@ -719,19 +725,19 @@
         <v>5554762.93993</v>
       </c>
       <c r="S3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="U3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="V3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -748,40 +754,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F4">
-        <v>0.252622545288335</v>
+        <v>0.36111831598129</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H4">
+        <v>0.352941176470588</v>
+      </c>
+      <c r="I4">
         <v>1</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
       <c r="J4">
-        <v>0.0491026726543967</v>
+        <v>3</v>
       </c>
       <c r="K4">
-        <v>0.0052778823234244</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>-0.0053053170724989</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.0198782856196262</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>10.7486660870218</v>
+        <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q4">
         <v>1798681.95061</v>
@@ -790,19 +796,19 @@
         <v>5554762.93993</v>
       </c>
       <c r="S4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="U4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="V4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -822,34 +828,34 @@
         <v>32</v>
       </c>
       <c r="F5">
-        <v>0.957521697938325</v>
+        <v>0.252622545288335</v>
       </c>
       <c r="G5">
-        <v>0.529411764705882</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.441176470588235</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.0025</v>
+        <v>0.0491026726543967</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.0052778823234244</v>
       </c>
       <c r="L5">
-        <v>-0.0063531919497335</v>
+        <v>-0.0053053170724989</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.0198782856196262</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>10.7486660870218</v>
       </c>
       <c r="O5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P5" t="s">
         <v>37</v>
@@ -861,19 +867,19 @@
         <v>5554762.93993</v>
       </c>
       <c r="S5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="U5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="V5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -890,37 +896,37 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F6">
-        <v>0.573760082709653</v>
+        <v>0.957521697938325</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.529411764705882</v>
       </c>
       <c r="H6">
-        <v>0.9696969696969699</v>
+        <v>0.441176470588235</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>8.5</v>
+        <v>0.0025</v>
       </c>
       <c r="K6">
-        <v>0.0117884690598056</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>-0.161090884114386</v>
+        <v>-0.0063531919497335</v>
       </c>
       <c r="M6">
-        <v>0.23672213010827</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.13868787129183</v>
+        <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P6" t="s">
         <v>38</v>
@@ -932,16 +938,19 @@
         <v>5554762.93993</v>
       </c>
       <c r="S6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="U6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="V6" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+      <c r="W6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -958,40 +967,40 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F7">
-        <v>0.77533060184295</v>
+        <v>0.573760082709653</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.882352941176471</v>
+        <v>0.9696969696969699</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>1.275</v>
+        <v>8.5</v>
       </c>
       <c r="K7">
-        <v>-0.0295857879234168</v>
+        <v>0.0117884690598056</v>
       </c>
       <c r="L7">
-        <v>-0.134215334655914</v>
+        <v>-0.161090884114386</v>
       </c>
       <c r="M7">
-        <v>0.0611372838412634</v>
+        <v>0.23672213010827</v>
       </c>
       <c r="N7">
-        <v>-2.32045395477779</v>
+        <v>0.13868787129183</v>
       </c>
       <c r="O7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="Q7">
         <v>1798681.95061</v>
@@ -1000,19 +1009,16 @@
         <v>5554762.93993</v>
       </c>
       <c r="S7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="U7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="V7" t="s">
-        <v>43</v>
-      </c>
-      <c r="W7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1029,40 +1035,40 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F8">
-        <v>0.69808913321023</v>
+        <v>0.77533060184295</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.970588235294118</v>
+        <v>0.882352941176471</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1445</v>
+        <v>1.275</v>
       </c>
       <c r="K8">
-        <v>-0.0063706395348837</v>
+        <v>-0.0295857879234168</v>
       </c>
       <c r="L8">
-        <v>-0.0283523671698268</v>
+        <v>-0.134215334655914</v>
       </c>
       <c r="M8">
-        <v>0.0119498502517399</v>
+        <v>0.0611372838412634</v>
       </c>
       <c r="N8">
-        <v>-4.40874708296451</v>
+        <v>-2.32045395477779</v>
       </c>
       <c r="O8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q8">
         <v>1798681.95061</v>
@@ -1071,19 +1077,19 @@
         <v>5554762.93993</v>
       </c>
       <c r="S8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="U8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="V8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1091,10 +1097,10 @@
         <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C9">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
@@ -1103,37 +1109,37 @@
         <v>32</v>
       </c>
       <c r="F9">
-        <v>0.5</v>
+        <v>0.69808913321023</v>
       </c>
       <c r="G9">
-        <v>0.173076923076923</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>0.692307692307692</v>
+        <v>0.970588235294118</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>7.1</v>
+        <v>0.1445</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>-0.0063706395348837</v>
       </c>
       <c r="L9">
-        <v>-1.4282306893688</v>
+        <v>-0.0283523671698268</v>
       </c>
       <c r="M9">
-        <v>0.519560226986164</v>
+        <v>0.0119498502517399</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>-4.40874708296451</v>
       </c>
       <c r="O9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q9">
         <v>1798681.95061</v>
@@ -1142,19 +1148,19 @@
         <v>5554762.93993</v>
       </c>
       <c r="S9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="U9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="V9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1171,37 +1177,37 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F10">
-        <v>0.622282598474911</v>
+        <v>0.5</v>
       </c>
       <c r="G10">
-        <v>0.448979591836735</v>
+        <v>0.173076923076923</v>
       </c>
       <c r="H10">
-        <v>0.306122448979592</v>
+        <v>0.692307692307692</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>4</v>
+        <v>7.1</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>-1.4282306893688</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.519560226986164</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P10" t="s">
         <v>35</v>
@@ -1213,19 +1219,19 @@
         <v>5554762.93993</v>
       </c>
       <c r="S10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="U10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="V10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1233,7 +1239,7 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -1242,22 +1248,22 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F11">
-        <v>0.594176281411117</v>
+        <v>0.622282598474911</v>
       </c>
       <c r="G11">
-        <v>0.557692307692308</v>
+        <v>0.448979591836735</v>
       </c>
       <c r="H11">
-        <v>0.423076923076923</v>
+        <v>0.306122448979592</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>0.0025</v>
+        <v>4</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1272,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P11" t="s">
         <v>35</v>
@@ -1284,19 +1290,19 @@
         <v>5554762.93993</v>
       </c>
       <c r="S11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="U11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="V11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1304,7 +1310,7 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -1313,40 +1319,40 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F12">
-        <v>0.190440734989385</v>
+        <v>0.594176281411117</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.557692307692308</v>
       </c>
       <c r="H12">
-        <v>0.807692307692308</v>
+        <v>0.423076923076923</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>1.265</v>
+        <v>0.0025</v>
       </c>
       <c r="K12">
-        <v>0.0199625562997363</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>-0.008978666519167599</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0.0537722981832012</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>1.57806769167876</v>
+        <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q12">
         <v>1798681.95061</v>
@@ -1355,19 +1361,19 @@
         <v>5554762.93993</v>
       </c>
       <c r="S12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="U12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="V12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1384,40 +1390,40 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F13">
-        <v>0.0528450772193978</v>
+        <v>0.190440734989385</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.923076923076923</v>
+        <v>0.807692307692308</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.136</v>
+        <v>1.265</v>
       </c>
       <c r="K13">
-        <v>0.004372573186223</v>
+        <v>0.0199625562997363</v>
       </c>
       <c r="L13">
-        <v>-2.60954948570521E-05</v>
+        <v>-0.008978666519167599</v>
       </c>
       <c r="M13">
-        <v>0.008937579545891401</v>
+        <v>0.0537722981832012</v>
       </c>
       <c r="N13">
-        <v>3.21512734281103</v>
+        <v>1.57806769167876</v>
       </c>
       <c r="O13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Q13">
         <v>1798681.95061</v>
@@ -1426,19 +1432,90 @@
         <v>5554762.93993</v>
       </c>
       <c r="S13" t="s">
+        <v>41</v>
+      </c>
+      <c r="T13" t="s">
+        <v>42</v>
+      </c>
+      <c r="U13" t="s">
+        <v>43</v>
+      </c>
+      <c r="V13" t="s">
+        <v>44</v>
+      </c>
+      <c r="W13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14">
+        <v>0.0528450772193978</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0.136</v>
+      </c>
+      <c r="K14">
+        <v>0.004372573186223</v>
+      </c>
+      <c r="L14">
+        <v>-2.60954948570521E-05</v>
+      </c>
+      <c r="M14">
+        <v>0.008937579545891401</v>
+      </c>
+      <c r="N14">
+        <v>3.21512734281103</v>
+      </c>
+      <c r="O14" t="s">
+        <v>34</v>
+      </c>
+      <c r="P14" t="s">
         <v>40</v>
       </c>
-      <c r="T13" t="s">
+      <c r="Q14">
+        <v>1798681.95061</v>
+      </c>
+      <c r="R14">
+        <v>5554762.93993</v>
+      </c>
+      <c r="S14" t="s">
         <v>41</v>
       </c>
-      <c r="U13" t="s">
+      <c r="T14" t="s">
         <v>42</v>
       </c>
-      <c r="V13" t="s">
+      <c r="U14" t="s">
         <v>43</v>
       </c>
-      <c r="W13" t="s">
-        <v>47</v>
+      <c r="V14" t="s">
+        <v>44</v>
+      </c>
+      <c r="W14" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
